--- a/dev/Input data_bus.xlsx
+++ b/dev/Input data_bus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/carculator_bus/dev/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/carculator_bus/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF487C65-BE91-934A-8356-5AEA3919AE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7B589B-E443-284B-9A00-82DE58DD6A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="10720" windowWidth="30240" windowHeight="18880" tabRatio="518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14560" yWindow="3760" windowWidth="30240" windowHeight="18880" tabRatio="518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicle parameters" sheetId="22" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vehicle parameters'!$A$2:$AB$240</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="325">
   <si>
     <t>power to mass ratio</t>
   </si>
@@ -1007,6 +1007,15 @@
   </si>
   <si>
     <t>battery cell mass share, SiB</t>
+  </si>
+  <si>
+    <t>battery cycle life, Li-O2</t>
+  </si>
+  <si>
+    <t>battery cycle life, Li-S</t>
+  </si>
+  <si>
+    <t>battery cycle life, SiB</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1254,7 @@
     <cellStyle name="Normal 2 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Standard 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
@@ -1550,13 +1559,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AO251"/>
+  <dimension ref="A1:AO254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="R210" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="K241" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D253" sqref="D253"/>
+      <selection pane="bottomRight" activeCell="C261" sqref="C261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -23921,6 +23930,264 @@
       </c>
       <c r="AB251" s="3">
         <v>0.7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A252" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G252" s="3"/>
+      <c r="H252" s="3"/>
+      <c r="I252" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="J252" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K252" s="5">
+        <v>1300</v>
+      </c>
+      <c r="L252" s="5">
+        <v>1000</v>
+      </c>
+      <c r="M252" s="5">
+        <v>1500</v>
+      </c>
+      <c r="N252" s="5">
+        <v>1300</v>
+      </c>
+      <c r="O252" s="5">
+        <v>1000</v>
+      </c>
+      <c r="P252" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Q252" s="5">
+        <v>1300</v>
+      </c>
+      <c r="R252" s="5">
+        <v>1000</v>
+      </c>
+      <c r="S252" s="5">
+        <v>1500</v>
+      </c>
+      <c r="T252" s="5">
+        <v>1300</v>
+      </c>
+      <c r="U252" s="5">
+        <v>1000</v>
+      </c>
+      <c r="V252" s="5">
+        <v>1500</v>
+      </c>
+      <c r="W252" s="5">
+        <v>1300</v>
+      </c>
+      <c r="X252" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y252" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Z252" s="5">
+        <v>1300</v>
+      </c>
+      <c r="AA252" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AB252" s="5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="253" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A253" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G253" s="3"/>
+      <c r="H253" s="3"/>
+      <c r="I253" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="J253" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K253" s="5">
+        <f>AVERAGE(L253,M253)</f>
+        <v>1150</v>
+      </c>
+      <c r="L253" s="5">
+        <v>800</v>
+      </c>
+      <c r="M253" s="5">
+        <v>1500</v>
+      </c>
+      <c r="N253" s="5">
+        <f>AVERAGE(O253,P253)</f>
+        <v>1150</v>
+      </c>
+      <c r="O253" s="5">
+        <v>800</v>
+      </c>
+      <c r="P253" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Q253" s="5">
+        <f>AVERAGE(R253,S253)</f>
+        <v>1150</v>
+      </c>
+      <c r="R253" s="5">
+        <v>800</v>
+      </c>
+      <c r="S253" s="5">
+        <v>1500</v>
+      </c>
+      <c r="T253" s="5">
+        <f>AVERAGE(U253,V253)</f>
+        <v>1150</v>
+      </c>
+      <c r="U253" s="5">
+        <v>800</v>
+      </c>
+      <c r="V253" s="5">
+        <v>1500</v>
+      </c>
+      <c r="W253" s="5">
+        <f>AVERAGE(X253,Y253)</f>
+        <v>1150</v>
+      </c>
+      <c r="X253" s="5">
+        <v>800</v>
+      </c>
+      <c r="Y253" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Z253" s="5">
+        <f>AVERAGE(AA253,AB253)</f>
+        <v>1150</v>
+      </c>
+      <c r="AA253" s="5">
+        <v>800</v>
+      </c>
+      <c r="AB253" s="5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="254" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A254" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G254" s="3"/>
+      <c r="H254" s="3"/>
+      <c r="I254" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="J254" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K254" s="5">
+        <f>AVERAGE(L254,M254)</f>
+        <v>3250</v>
+      </c>
+      <c r="L254" s="5">
+        <v>2500</v>
+      </c>
+      <c r="M254" s="5">
+        <v>4000</v>
+      </c>
+      <c r="N254" s="5">
+        <f>AVERAGE(O254,P254)</f>
+        <v>3250</v>
+      </c>
+      <c r="O254" s="5">
+        <v>2500</v>
+      </c>
+      <c r="P254" s="5">
+        <v>4000</v>
+      </c>
+      <c r="Q254" s="5">
+        <f>AVERAGE(R254,S254)</f>
+        <v>3250</v>
+      </c>
+      <c r="R254" s="5">
+        <v>2500</v>
+      </c>
+      <c r="S254" s="5">
+        <v>4000</v>
+      </c>
+      <c r="T254" s="5">
+        <f>AVERAGE(U254,V254)</f>
+        <v>3250</v>
+      </c>
+      <c r="U254" s="5">
+        <v>2500</v>
+      </c>
+      <c r="V254" s="5">
+        <v>4000</v>
+      </c>
+      <c r="W254" s="5">
+        <f>AVERAGE(X254,Y254)</f>
+        <v>3250</v>
+      </c>
+      <c r="X254" s="5">
+        <v>2500</v>
+      </c>
+      <c r="Y254" s="5">
+        <v>4000</v>
+      </c>
+      <c r="Z254" s="5">
+        <f>AVERAGE(AA254,AB254)</f>
+        <v>3250</v>
+      </c>
+      <c r="AA254" s="5">
+        <v>2500</v>
+      </c>
+      <c r="AB254" s="5">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
